--- a/Seasons/seasons_Guidelines.xlsx
+++ b/Seasons/seasons_Guidelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB749C-DF31-4376-80D5-FC26682DAEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66598BD-53A5-4954-8842-2A77E4E4B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Seasons Requirements" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>All SUP</t>
+  </si>
+  <si>
+    <t>Dish/Dining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +395,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,7 +667,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +679,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,7 +687,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10817,8 +10823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0951A-9348-4E7F-9BF3-340EBDB95AF2}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10900,7 +10906,7 @@
     </row>
     <row r="3" spans="1:13" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -11002,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -12389,8 +12395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD00F279-D1BB-4B51-982D-12C68829133E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12460,6 +12466,9 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -12479,10 +12488,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12629,8 +12644,11 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
@@ -12654,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -12673,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
